--- a/NatmiData/natmiOut_TPM/YoungD7/LR-pairs_lrc2p/Icam4-Itgb1.xlsx
+++ b/NatmiData/natmiOut_TPM/YoungD7/LR-pairs_lrc2p/Icam4-Itgb1.xlsx
@@ -537,16 +537,16 @@
         <v>1</v>
       </c>
       <c r="G2">
-        <v>6.116667</v>
+        <v>1.829945333333333</v>
       </c>
       <c r="H2">
-        <v>18.350001</v>
+        <v>5.489835999999999</v>
       </c>
       <c r="I2">
-        <v>0.7618741505207483</v>
+        <v>0.4190796720210465</v>
       </c>
       <c r="J2">
-        <v>0.7618741505207483</v>
+        <v>0.4190796720210465</v>
       </c>
       <c r="K2">
         <v>3</v>
@@ -555,28 +555,28 @@
         <v>1</v>
       </c>
       <c r="M2">
-        <v>98.946724</v>
+        <v>168.1098273333333</v>
       </c>
       <c r="N2">
-        <v>296.840172</v>
+        <v>504.329482</v>
       </c>
       <c r="O2">
-        <v>0.2098009692989996</v>
+        <v>0.2984182258032519</v>
       </c>
       <c r="P2">
-        <v>0.2098009692989996</v>
+        <v>0.298418225803252</v>
       </c>
       <c r="Q2">
-        <v>605.224161448908</v>
+        <v>307.6317940161057</v>
       </c>
       <c r="R2">
-        <v>5447.017453040172</v>
+        <v>2768.686146144952</v>
       </c>
       <c r="S2">
-        <v>0.1598419352631049</v>
+        <v>0.1250610121947294</v>
       </c>
       <c r="T2">
-        <v>0.1598419352631049</v>
+        <v>0.1250610121947294</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -599,16 +599,16 @@
         <v>1</v>
       </c>
       <c r="G3">
-        <v>6.116667</v>
+        <v>1.829945333333333</v>
       </c>
       <c r="H3">
-        <v>18.350001</v>
+        <v>5.489835999999999</v>
       </c>
       <c r="I3">
-        <v>0.7618741505207483</v>
+        <v>0.4190796720210465</v>
       </c>
       <c r="J3">
-        <v>0.7618741505207483</v>
+        <v>0.4190796720210465</v>
       </c>
       <c r="K3">
         <v>3</v>
@@ -623,22 +623,22 @@
         <v>489.018707</v>
       </c>
       <c r="O3">
-        <v>0.345629090707923</v>
+        <v>0.2893586437755394</v>
       </c>
       <c r="P3">
-        <v>0.3456290907079231</v>
+        <v>0.2893586437755394</v>
       </c>
       <c r="Q3">
-        <v>997.0548624965229</v>
+        <v>298.2925002624502</v>
       </c>
       <c r="R3">
-        <v>8973.493762468706</v>
+        <v>2684.632502362052</v>
       </c>
       <c r="S3">
-        <v>0.2633258698783575</v>
+        <v>0.1212643255299079</v>
       </c>
       <c r="T3">
-        <v>0.2633258698783575</v>
+        <v>0.1212643255299079</v>
       </c>
     </row>
     <row r="4" spans="1:20">
@@ -661,16 +661,16 @@
         <v>1</v>
       </c>
       <c r="G4">
-        <v>6.116667</v>
+        <v>1.829945333333333</v>
       </c>
       <c r="H4">
-        <v>18.350001</v>
+        <v>5.489835999999999</v>
       </c>
       <c r="I4">
-        <v>0.7618741505207483</v>
+        <v>0.4190796720210465</v>
       </c>
       <c r="J4">
-        <v>0.7618741505207483</v>
+        <v>0.4190796720210465</v>
       </c>
       <c r="K4">
         <v>3</v>
@@ -679,28 +679,28 @@
         <v>1</v>
       </c>
       <c r="M4">
-        <v>144.2727966666667</v>
+        <v>165.99353</v>
       </c>
       <c r="N4">
-        <v>432.81839</v>
+        <v>497.98059</v>
       </c>
       <c r="O4">
-        <v>0.3059077790604178</v>
+        <v>0.294661504941043</v>
       </c>
       <c r="P4">
-        <v>0.3059077790604179</v>
+        <v>0.294661504941043</v>
       </c>
       <c r="Q4">
-        <v>882.46865436871</v>
+        <v>303.7590855870266</v>
       </c>
       <c r="R4">
-        <v>7942.21788931839</v>
+        <v>2733.83177028324</v>
       </c>
       <c r="S4">
-        <v>0.2330632293093446</v>
+        <v>0.1234866468479203</v>
       </c>
       <c r="T4">
-        <v>0.2330632293093446</v>
+        <v>0.1234866468479203</v>
       </c>
     </row>
     <row r="5" spans="1:20">
@@ -723,16 +723,16 @@
         <v>1</v>
       </c>
       <c r="G5">
-        <v>6.116667</v>
+        <v>1.829945333333333</v>
       </c>
       <c r="H5">
-        <v>18.350001</v>
+        <v>5.489835999999999</v>
       </c>
       <c r="I5">
-        <v>0.7618741505207483</v>
+        <v>0.4190796720210465</v>
       </c>
       <c r="J5">
-        <v>0.7618741505207483</v>
+        <v>0.4190796720210465</v>
       </c>
       <c r="K5">
         <v>3</v>
@@ -741,28 +741,28 @@
         <v>1</v>
       </c>
       <c r="M5">
-        <v>65.39610666666668</v>
+        <v>66.22673433333334</v>
       </c>
       <c r="N5">
-        <v>196.18832</v>
+        <v>198.680203</v>
       </c>
       <c r="O5">
-        <v>0.1386621609326595</v>
+        <v>0.1175616254801657</v>
       </c>
       <c r="P5">
-        <v>0.1386621609326595</v>
+        <v>0.1175616254801657</v>
       </c>
       <c r="Q5">
-        <v>400.0062075764801</v>
+        <v>121.1913034351898</v>
       </c>
       <c r="R5">
-        <v>3600.05586818832</v>
+        <v>1090.721730916708</v>
       </c>
       <c r="S5">
-        <v>0.1056431160699412</v>
+        <v>0.04926768744848892</v>
       </c>
       <c r="T5">
-        <v>0.1056431160699412</v>
+        <v>0.04926768744848892</v>
       </c>
     </row>
     <row r="6" spans="1:20">
@@ -791,10 +791,10 @@
         <v>3.711597</v>
       </c>
       <c r="I6">
-        <v>0.1541018886838403</v>
+        <v>0.2833335737960661</v>
       </c>
       <c r="J6">
-        <v>0.1541018886838403</v>
+        <v>0.2833335737960661</v>
       </c>
       <c r="K6">
         <v>3</v>
@@ -803,28 +803,28 @@
         <v>1</v>
       </c>
       <c r="M6">
-        <v>98.946724</v>
+        <v>168.1098273333333</v>
       </c>
       <c r="N6">
-        <v>296.840172</v>
+        <v>504.329482</v>
       </c>
       <c r="O6">
-        <v>0.2098009692989996</v>
+        <v>0.2984182258032519</v>
       </c>
       <c r="P6">
-        <v>0.2098009692989996</v>
+        <v>0.298418225803252</v>
       </c>
       <c r="Q6">
-        <v>122.416787986076</v>
+        <v>207.9853102669726</v>
       </c>
       <c r="R6">
-        <v>1101.751091874684</v>
+        <v>1871.867792402754</v>
       </c>
       <c r="S6">
-        <v>0.03233072561667623</v>
+        <v>0.08455190240271679</v>
       </c>
       <c r="T6">
-        <v>0.03233072561667622</v>
+        <v>0.0845519024027168</v>
       </c>
     </row>
     <row r="7" spans="1:20">
@@ -853,10 +853,10 @@
         <v>3.711597</v>
       </c>
       <c r="I7">
-        <v>0.1541018886838403</v>
+        <v>0.2833335737960661</v>
       </c>
       <c r="J7">
-        <v>0.1541018886838403</v>
+        <v>0.2833335737960661</v>
       </c>
       <c r="K7">
         <v>3</v>
@@ -871,10 +871,10 @@
         <v>489.018707</v>
       </c>
       <c r="O7">
-        <v>0.345629090707923</v>
+        <v>0.2893586437755394</v>
       </c>
       <c r="P7">
-        <v>0.3456290907079231</v>
+        <v>0.2893586437755394</v>
       </c>
       <c r="Q7">
         <v>201.6711517605643</v>
@@ -883,10 +883,10 @@
         <v>1815.040365845079</v>
       </c>
       <c r="S7">
-        <v>0.05326209566216929</v>
+        <v>0.08198501864970639</v>
       </c>
       <c r="T7">
-        <v>0.05326209566216929</v>
+        <v>0.08198501864970639</v>
       </c>
     </row>
     <row r="8" spans="1:20">
@@ -915,10 +915,10 @@
         <v>3.711597</v>
       </c>
       <c r="I8">
-        <v>0.1541018886838403</v>
+        <v>0.2833335737960661</v>
       </c>
       <c r="J8">
-        <v>0.1541018886838403</v>
+        <v>0.2833335737960661</v>
       </c>
       <c r="K8">
         <v>3</v>
@@ -927,28 +927,28 @@
         <v>1</v>
       </c>
       <c r="M8">
-        <v>144.2727966666667</v>
+        <v>165.99353</v>
       </c>
       <c r="N8">
-        <v>432.81839</v>
+        <v>497.98059</v>
       </c>
       <c r="O8">
-        <v>0.3059077790604178</v>
+        <v>0.294661504941043</v>
       </c>
       <c r="P8">
-        <v>0.3059077790604179</v>
+        <v>0.294661504941043</v>
       </c>
       <c r="Q8">
-        <v>178.4941597632033</v>
+        <v>205.36702932247</v>
       </c>
       <c r="R8">
-        <v>1606.44743786883</v>
+        <v>1848.30326390223</v>
       </c>
       <c r="S8">
-        <v>0.04714096651628932</v>
+        <v>0.08348749725507289</v>
       </c>
       <c r="T8">
-        <v>0.04714096651628932</v>
+        <v>0.08348749725507289</v>
       </c>
     </row>
     <row r="9" spans="1:20">
@@ -977,10 +977,10 @@
         <v>3.711597</v>
       </c>
       <c r="I9">
-        <v>0.1541018886838403</v>
+        <v>0.2833335737960661</v>
       </c>
       <c r="J9">
-        <v>0.1541018886838403</v>
+        <v>0.2833335737960661</v>
       </c>
       <c r="K9">
         <v>3</v>
@@ -989,28 +989,28 @@
         <v>1</v>
       </c>
       <c r="M9">
-        <v>65.39610666666668</v>
+        <v>66.22673433333334</v>
       </c>
       <c r="N9">
-        <v>196.18832</v>
+        <v>198.680203</v>
       </c>
       <c r="O9">
-        <v>0.1386621609326595</v>
+        <v>0.1175616254801657</v>
       </c>
       <c r="P9">
-        <v>0.1386621609326595</v>
+        <v>0.1175616254801657</v>
       </c>
       <c r="Q9">
-        <v>80.90799777189335</v>
+        <v>81.93564949046566</v>
       </c>
       <c r="R9">
-        <v>728.1719799470401</v>
+        <v>737.420845414191</v>
       </c>
       <c r="S9">
-        <v>0.02136810088870543</v>
+        <v>0.03330915548857</v>
       </c>
       <c r="T9">
-        <v>0.02136810088870543</v>
+        <v>0.03330915548857</v>
       </c>
     </row>
     <row r="10" spans="1:20">
@@ -1027,22 +1027,22 @@
         <v>20</v>
       </c>
       <c r="E10">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="F10">
-        <v>0.6666666666666666</v>
+        <v>1</v>
       </c>
       <c r="G10">
-        <v>0.05133433333333334</v>
+        <v>0.1530633333333333</v>
       </c>
       <c r="H10">
-        <v>0.154003</v>
+        <v>0.45919</v>
       </c>
       <c r="I10">
-        <v>0.006394054409187597</v>
+        <v>0.03505335944376924</v>
       </c>
       <c r="J10">
-        <v>0.006394054409187596</v>
+        <v>0.03505335944376924</v>
       </c>
       <c r="K10">
         <v>3</v>
@@ -1051,28 +1051,28 @@
         <v>1</v>
       </c>
       <c r="M10">
-        <v>98.946724</v>
+        <v>168.1098273333333</v>
       </c>
       <c r="N10">
-        <v>296.840172</v>
+        <v>504.329482</v>
       </c>
       <c r="O10">
-        <v>0.2098009692989996</v>
+        <v>0.2984182258032519</v>
       </c>
       <c r="P10">
-        <v>0.2098009692989996</v>
+        <v>0.298418225803252</v>
       </c>
       <c r="Q10">
-        <v>5.079364112057334</v>
+        <v>25.73145053773111</v>
       </c>
       <c r="R10">
-        <v>45.714277008516</v>
+        <v>231.58305483958</v>
       </c>
       <c r="S10">
-        <v>0.0013414788127981</v>
+        <v>0.01046056133365328</v>
       </c>
       <c r="T10">
-        <v>0.0013414788127981</v>
+        <v>0.01046056133365328</v>
       </c>
     </row>
     <row r="11" spans="1:20">
@@ -1089,22 +1089,22 @@
         <v>21</v>
       </c>
       <c r="E11">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="F11">
-        <v>0.6666666666666666</v>
+        <v>1</v>
       </c>
       <c r="G11">
-        <v>0.05133433333333334</v>
+        <v>0.1530633333333333</v>
       </c>
       <c r="H11">
-        <v>0.154003</v>
+        <v>0.45919</v>
       </c>
       <c r="I11">
-        <v>0.006394054409187597</v>
+        <v>0.03505335944376924</v>
       </c>
       <c r="J11">
-        <v>0.006394054409187596</v>
+        <v>0.03505335944376924</v>
       </c>
       <c r="K11">
         <v>3</v>
@@ -1119,22 +1119,22 @@
         <v>489.018707</v>
       </c>
       <c r="O11">
-        <v>0.345629090707923</v>
+        <v>0.2893586437755394</v>
       </c>
       <c r="P11">
-        <v>0.3456290907079231</v>
+        <v>0.2893586437755394</v>
       </c>
       <c r="Q11">
-        <v>8.367816437124556</v>
+        <v>24.95027778525889</v>
       </c>
       <c r="R11">
-        <v>75.310347934121</v>
+        <v>224.55250006733</v>
       </c>
       <c r="S11">
-        <v>0.002209971211384495</v>
+        <v>0.01014299254842556</v>
       </c>
       <c r="T11">
-        <v>0.002209971211384495</v>
+        <v>0.01014299254842556</v>
       </c>
     </row>
     <row r="12" spans="1:20">
@@ -1151,22 +1151,22 @@
         <v>22</v>
       </c>
       <c r="E12">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="F12">
-        <v>0.6666666666666666</v>
+        <v>1</v>
       </c>
       <c r="G12">
-        <v>0.05133433333333334</v>
+        <v>0.1530633333333333</v>
       </c>
       <c r="H12">
-        <v>0.154003</v>
+        <v>0.45919</v>
       </c>
       <c r="I12">
-        <v>0.006394054409187597</v>
+        <v>0.03505335944376924</v>
       </c>
       <c r="J12">
-        <v>0.006394054409187596</v>
+        <v>0.03505335944376924</v>
       </c>
       <c r="K12">
         <v>3</v>
@@ -1175,28 +1175,28 @@
         <v>1</v>
       </c>
       <c r="M12">
-        <v>144.2727966666667</v>
+        <v>165.99353</v>
       </c>
       <c r="N12">
-        <v>432.81839</v>
+        <v>497.98059</v>
       </c>
       <c r="O12">
-        <v>0.3059077790604178</v>
+        <v>0.294661504941043</v>
       </c>
       <c r="P12">
-        <v>0.3059077790604179</v>
+        <v>0.294661504941043</v>
       </c>
       <c r="Q12">
-        <v>7.406147835018889</v>
+        <v>25.40752301356666</v>
       </c>
       <c r="R12">
-        <v>66.65533051517001</v>
+        <v>228.6677071221</v>
       </c>
       <c r="S12">
-        <v>0.00195599098350605</v>
+        <v>0.01032887564694036</v>
       </c>
       <c r="T12">
-        <v>0.00195599098350605</v>
+        <v>0.01032887564694036</v>
       </c>
     </row>
     <row r="13" spans="1:20">
@@ -1213,22 +1213,22 @@
         <v>23</v>
       </c>
       <c r="E13">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="F13">
-        <v>0.6666666666666666</v>
+        <v>1</v>
       </c>
       <c r="G13">
-        <v>0.05133433333333334</v>
+        <v>0.1530633333333333</v>
       </c>
       <c r="H13">
-        <v>0.154003</v>
+        <v>0.45919</v>
       </c>
       <c r="I13">
-        <v>0.006394054409187597</v>
+        <v>0.03505335944376924</v>
       </c>
       <c r="J13">
-        <v>0.006394054409187596</v>
+        <v>0.03505335944376924</v>
       </c>
       <c r="K13">
         <v>3</v>
@@ -1237,28 +1237,28 @@
         <v>1</v>
       </c>
       <c r="M13">
-        <v>65.39610666666668</v>
+        <v>66.22673433333334</v>
       </c>
       <c r="N13">
-        <v>196.18832</v>
+        <v>198.680203</v>
       </c>
       <c r="O13">
-        <v>0.1386621609326595</v>
+        <v>0.1175616254801657</v>
       </c>
       <c r="P13">
-        <v>0.1386621609326595</v>
+        <v>0.1175616254801657</v>
       </c>
       <c r="Q13">
-        <v>3.35706553832889</v>
+        <v>10.13688471284111</v>
       </c>
       <c r="R13">
-        <v>30.21358984496</v>
+        <v>91.23196241557</v>
       </c>
       <c r="S13">
-        <v>0.0008866134014989513</v>
+        <v>0.004120929914750027</v>
       </c>
       <c r="T13">
-        <v>0.0008866134014989513</v>
+        <v>0.004120929914750027</v>
       </c>
     </row>
     <row r="14" spans="1:20">
@@ -1281,16 +1281,16 @@
         <v>1</v>
       </c>
       <c r="G14">
-        <v>0.6232476666666668</v>
+        <v>1.146373333333333</v>
       </c>
       <c r="H14">
-        <v>1.869743</v>
+        <v>3.43912</v>
       </c>
       <c r="I14">
-        <v>0.07762990638622394</v>
+        <v>0.2625333947391181</v>
       </c>
       <c r="J14">
-        <v>0.07762990638622393</v>
+        <v>0.2625333947391181</v>
       </c>
       <c r="K14">
         <v>3</v>
@@ -1299,28 +1299,28 @@
         <v>1</v>
       </c>
       <c r="M14">
-        <v>98.946724</v>
+        <v>168.1098273333333</v>
       </c>
       <c r="N14">
-        <v>296.840172</v>
+        <v>504.329482</v>
       </c>
       <c r="O14">
-        <v>0.2098009692989996</v>
+        <v>0.2984182258032519</v>
       </c>
       <c r="P14">
-        <v>0.2098009692989996</v>
+        <v>0.298418225803252</v>
       </c>
       <c r="Q14">
-        <v>61.66831485731068</v>
+        <v>192.7166231262044</v>
       </c>
       <c r="R14">
-        <v>555.014833715796</v>
+        <v>1734.44960813584</v>
       </c>
       <c r="S14">
-        <v>0.01628682960642038</v>
+        <v>0.07834474987215242</v>
       </c>
       <c r="T14">
-        <v>0.01628682960642038</v>
+        <v>0.07834474987215244</v>
       </c>
     </row>
     <row r="15" spans="1:20">
@@ -1343,16 +1343,16 @@
         <v>1</v>
       </c>
       <c r="G15">
-        <v>0.6232476666666668</v>
+        <v>1.146373333333333</v>
       </c>
       <c r="H15">
-        <v>1.869743</v>
+        <v>3.43912</v>
       </c>
       <c r="I15">
-        <v>0.07762990638622394</v>
+        <v>0.2625333947391181</v>
       </c>
       <c r="J15">
-        <v>0.07762990638622393</v>
+        <v>0.2625333947391181</v>
       </c>
       <c r="K15">
         <v>3</v>
@@ -1367,22 +1367,22 @@
         <v>489.018707</v>
       </c>
       <c r="O15">
-        <v>0.345629090707923</v>
+        <v>0.2893586437755394</v>
       </c>
       <c r="P15">
-        <v>0.3456290907079231</v>
+        <v>0.2893586437755394</v>
       </c>
       <c r="Q15">
-        <v>101.5932560313668</v>
+        <v>186.8660017353155</v>
       </c>
       <c r="R15">
-        <v>914.3393042823011</v>
+        <v>1681.79401561784</v>
       </c>
       <c r="S15">
-        <v>0.02683115395601177</v>
+        <v>0.07596630704749956</v>
       </c>
       <c r="T15">
-        <v>0.02683115395601177</v>
+        <v>0.07596630704749956</v>
       </c>
     </row>
     <row r="16" spans="1:20">
@@ -1405,16 +1405,16 @@
         <v>1</v>
       </c>
       <c r="G16">
-        <v>0.6232476666666668</v>
+        <v>1.146373333333333</v>
       </c>
       <c r="H16">
-        <v>1.869743</v>
+        <v>3.43912</v>
       </c>
       <c r="I16">
-        <v>0.07762990638622394</v>
+        <v>0.2625333947391181</v>
       </c>
       <c r="J16">
-        <v>0.07762990638622393</v>
+        <v>0.2625333947391181</v>
       </c>
       <c r="K16">
         <v>3</v>
@@ -1423,28 +1423,28 @@
         <v>1</v>
       </c>
       <c r="M16">
-        <v>144.2727966666667</v>
+        <v>165.99353</v>
       </c>
       <c r="N16">
-        <v>432.81839</v>
+        <v>497.98059</v>
       </c>
       <c r="O16">
-        <v>0.3059077790604178</v>
+        <v>0.294661504941043</v>
       </c>
       <c r="P16">
-        <v>0.3059077790604179</v>
+        <v>0.294661504941043</v>
       </c>
       <c r="Q16">
-        <v>89.91768388597445</v>
+        <v>190.2905562978666</v>
       </c>
       <c r="R16">
-        <v>809.2591549737701</v>
+        <v>1712.6150066808</v>
       </c>
       <c r="S16">
-        <v>0.02374759225127791</v>
+        <v>0.07735848519110945</v>
       </c>
       <c r="T16">
-        <v>0.02374759225127791</v>
+        <v>0.07735848519110945</v>
       </c>
     </row>
     <row r="17" spans="1:20">
@@ -1467,16 +1467,16 @@
         <v>1</v>
       </c>
       <c r="G17">
-        <v>0.6232476666666668</v>
+        <v>1.146373333333333</v>
       </c>
       <c r="H17">
-        <v>1.869743</v>
+        <v>3.43912</v>
       </c>
       <c r="I17">
-        <v>0.07762990638622394</v>
+        <v>0.2625333947391181</v>
       </c>
       <c r="J17">
-        <v>0.07762990638622393</v>
+        <v>0.2625333947391181</v>
       </c>
       <c r="K17">
         <v>3</v>
@@ -1485,28 +1485,28 @@
         <v>1</v>
       </c>
       <c r="M17">
-        <v>65.39610666666668</v>
+        <v>66.22673433333334</v>
       </c>
       <c r="N17">
-        <v>196.18832</v>
+        <v>198.680203</v>
       </c>
       <c r="O17">
-        <v>0.1386621609326595</v>
+        <v>0.1175616254801657</v>
       </c>
       <c r="P17">
-        <v>0.1386621609326595</v>
+        <v>0.1175616254801657</v>
       </c>
       <c r="Q17">
-        <v>40.75797088908446</v>
+        <v>75.92056219348444</v>
       </c>
       <c r="R17">
-        <v>366.8217380017601</v>
+        <v>683.28505974136</v>
       </c>
       <c r="S17">
-        <v>0.01076433057251387</v>
+        <v>0.0308638526283567</v>
       </c>
       <c r="T17">
-        <v>0.01076433057251387</v>
+        <v>0.0308638526283567</v>
       </c>
     </row>
   </sheetData>
